--- a/2025/Sổ sách chính quy/Sổ mới 2024/Sổ nhận xét điểm danh/Sổ nhận xét điểm danh.xlsx
+++ b/2025/Sổ sách chính quy/Sổ mới 2024/Sổ nhận xét điểm danh/Sổ nhận xét điểm danh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\DATA_P4F6M596\2025\Sổ sách chính quy\Sổ mới 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\DATA_P4F6M596\2025\Sổ sách chính quy\Sổ mới 2024\Sổ nhận xét điểm danh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18821F3C-307C-44CE-9F8C-91CE2759C810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C7974-BAD9-48B4-B1A2-C53772B9B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1945196A-F466-4CEF-B8B1-675F2E75ADDF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Trang 3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk168604018" localSheetId="0">'Nội dung (2)'!$B$37</definedName>
+    <definedName name="_Hlk168604018" localSheetId="0">'Nội dung (2)'!$B$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Nội dung (2)'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Trang 3'!$1:$2</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
   <si>
     <t>PHẦN 1: ĐIỂM DANH</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Hoàng Văn Sáng</t>
   </si>
   <si>
-    <t>Nguyễn Đức Mạnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Quyết</t>
-  </si>
-  <si>
     <t>Đoàn Đức An</t>
   </si>
   <si>
@@ -100,37 +94,13 @@
     <t>Hoàng Hữu Hạnh</t>
   </si>
   <si>
-    <t>Phan Đức Nam</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Cường</t>
-  </si>
-  <si>
     <t>Đài SN 2</t>
   </si>
   <si>
     <t>Nguyễn Văn Hoà</t>
   </si>
   <si>
-    <t>Phùng Mạnh Quyến</t>
-  </si>
-  <si>
-    <t>Phạm Huy Hoàng</t>
-  </si>
-  <si>
     <t>Ngô Văn Thuấn</t>
-  </si>
-  <si>
-    <t>Vũ Văn Bình</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Phi Hùng</t>
-  </si>
-  <si>
-    <t>Nhữ Đình Bằng</t>
   </si>
   <si>
     <t>TRUNG ĐỘI 1</t>
@@ -142,25 +112,7 @@
     <t>Tiểu đội 1</t>
   </si>
   <si>
-    <t>Nguyễn Văn Huy</t>
-  </si>
-  <si>
-    <t>Dương Tuấn Kiệt</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Quân</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Hiếu</t>
-  </si>
-  <si>
-    <t>Đỗ Công Đạt</t>
-  </si>
-  <si>
-    <t>Lê Xuân An</t>
-  </si>
-  <si>
-    <t>Phạm Văn Hưng</t>
   </si>
   <si>
     <t>Phạm Văn Đạt</t>
@@ -179,12 +131,6 @@
   </si>
   <si>
     <t>Nguyễn Kim Đạt</t>
-  </si>
-  <si>
-    <t>Tiểu đội 3</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Khương</t>
   </si>
   <si>
     <t>Đặng Tiến Anh</t>
@@ -256,9 +202,6 @@
     <t>a2</t>
   </si>
   <si>
-    <t>a3</t>
-  </si>
-  <si>
     <t>Mai Quang Dưỡng</t>
   </si>
   <si>
@@ -271,22 +214,13 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Tiểu đội 4</t>
-  </si>
-  <si>
     <t>Lương Đức Việt</t>
   </si>
   <si>
     <t>Trần Hoài Nam</t>
   </si>
   <si>
-    <t>a4</t>
-  </si>
-  <si>
     <t>TT</t>
-  </si>
-  <si>
-    <t>Tháng 12</t>
   </si>
   <si>
     <t>Phạm Hữu Dương</t>
@@ -361,21 +295,6 @@
     <t>Cs-VTĐ</t>
   </si>
   <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Việt Linh</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đức Anh</t>
-  </si>
-  <si>
-    <t>at-VTĐ</t>
-  </si>
-  <si>
-    <t>Tiểu đội 5</t>
-  </si>
-  <si>
     <t>Võ Đức Mạnh</t>
   </si>
   <si>
@@ -437,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,12 +400,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -610,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,8 +555,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,17 +594,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,11 +917,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1899"/>
+  <dimension ref="A1:O1806"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O59" sqref="A1:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1022,72 +932,86 @@
     <col min="4" max="4" width="13" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="5" customWidth="1"/>
-    <col min="8" max="11" width="4.6640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="5"/>
+    <col min="7" max="8" width="5.21875" style="5" customWidth="1"/>
+    <col min="9" max="15" width="4.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1106,8 +1030,20 @@
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1121,8 +1057,12 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1130,13 +1070,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1144,22 +1084,26 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1167,8 +1111,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1176,13 +1124,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1190,22 +1138,26 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1213,22 +1165,26 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1236,45 +1192,45 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1282,10 +1238,14 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1297,22 +1257,26 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1320,37 +1284,53 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1358,45 +1338,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1404,37 +1384,53 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1442,45 +1438,45 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1488,37 +1484,53 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1526,106 +1538,126 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" s="6" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
+        <v>17</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
         <v>18</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1633,22 +1665,26 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
         <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1656,22 +1692,26 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
         <v>21</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1679,45 +1719,45 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
-        <v>22</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24">
-        <v>23</v>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>22</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1725,37 +1765,45 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1763,37 +1811,53 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>24</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1801,22 +1865,26 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>26</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1824,22 +1892,26 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>27</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1847,45 +1919,45 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>28</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1893,37 +1965,53 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>29</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1931,22 +2019,26 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>31</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1954,22 +2046,26 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>32</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1977,45 +2073,45 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>33</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2023,10 +2119,14 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="25" t="s">
-        <v>49</v>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -2038,22 +2138,26 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2061,22 +2165,26 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2084,22 +2192,26 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2107,22 +2219,26 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2130,45 +2246,45 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
-        <v>39</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2176,37 +2292,53 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>39</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2214,22 +2346,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2237,22 +2373,26 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2260,548 +2400,137 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
-        <v>44</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>45</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>46</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
-        <v>47</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
-        <v>48</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>49</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>50</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>51</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>52</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>53</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>54</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>55</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>56</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>57</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>58</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>59</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>60</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>61</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>62</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
@@ -7934,315 +7663,34 @@
     <row r="1806" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1806" s="7"/>
     </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1807" s="7"/>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1808" s="7"/>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1809" s="7"/>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1810" s="7"/>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1811" s="7"/>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1812" s="7"/>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1813" s="7"/>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1814" s="7"/>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1815" s="7"/>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1816" s="7"/>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1817" s="7"/>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1818" s="7"/>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1819" s="7"/>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1820" s="7"/>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1821" s="7"/>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1822" s="7"/>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1823" s="7"/>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1824" s="7"/>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1825" s="7"/>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1826" s="7"/>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1827" s="7"/>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1828" s="7"/>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1829" s="7"/>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1830" s="7"/>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1831" s="7"/>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1832" s="7"/>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1833" s="7"/>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1834" s="7"/>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1835" s="7"/>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1836" s="7"/>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1837" s="7"/>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1838" s="7"/>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1839" s="7"/>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1840" s="7"/>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1841" s="7"/>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1842" s="7"/>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1843" s="7"/>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1844" s="7"/>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1845" s="7"/>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1846" s="7"/>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1847" s="7"/>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1848" s="7"/>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1849" s="7"/>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1850" s="7"/>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1851" s="7"/>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1852" s="7"/>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1853" s="7"/>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1854" s="7"/>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1855" s="7"/>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1856" s="7"/>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1857" s="7"/>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1858" s="7"/>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1859" s="7"/>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1860" s="7"/>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1861" s="7"/>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1862" s="7"/>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1863" s="7"/>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1864" s="7"/>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1865" s="7"/>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1866" s="7"/>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1867" s="7"/>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1868" s="7"/>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1869" s="7"/>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1870" s="7"/>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1871" s="7"/>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1872" s="7"/>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1873" s="7"/>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1874" s="7"/>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1875" s="7"/>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1876" s="7"/>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1877" s="7"/>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1878" s="7"/>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1879" s="7"/>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1880" s="7"/>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1881" s="7"/>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1882" s="7"/>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1883" s="7"/>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1884" s="7"/>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1885" s="7"/>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1886" s="7"/>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1887" s="7"/>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1888" s="7"/>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1889" s="7"/>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1890" s="7"/>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1891" s="7"/>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1892" s="7"/>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1893" s="7"/>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1894" s="7"/>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1895" s="7"/>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1896" s="7"/>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1897" s="7"/>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1898" s="7"/>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1899" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A42:D42"/>
+  <mergeCells count="21">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A53:E53"/>
     <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="H3:K3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:O2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.3779527559055118" right="0.59055118110236227" top="0.98425196850393704" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="1.3779527559055118" top="0.98425196850393704" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8262,50 +7710,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:22" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -9785,50 +9233,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:22" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
